--- a/Bases/Nombres Posiciones Tiendas.xlsx
+++ b/Bases/Nombres Posiciones Tiendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.wal-mart.com/personal/jfuen11_cl_wal-mart_com/Documents/DMP/Tablas DMP Base/Layout/layout/layout/Bases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="11_F25DC773A252ABDACC10488779D97CC45BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6E682FD-AE45-4997-B9A0-E72D59809C1C}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="11_F25DC773A252ABDACC10488779D97CC45BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9D14126-4A3C-42A6-B94A-97B24A5A941C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6114" uniqueCount="2822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6126" uniqueCount="2822">
   <si>
     <t>TIENDA</t>
   </si>
@@ -19830,19 +19830,28 @@
       <c r="A308">
         <v>83</v>
       </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308">
+        <v>8</v>
+      </c>
       <c r="E308" t="s">
         <v>606</v>
       </c>
       <c r="F308" t="str">
         <f>IF(Posiciones[[#This Row],[POSICION]]="",Posiciones[[#This Row],[OLD_ID]],SUBSTITUTE(SUBSTITUTE(Posiciones[[#This Row],[ZONA]]&amp;"-"&amp;Posiciones[[#This Row],[TIPO POSICION]]&amp;" "&amp;TEXT(Posiciones[[#This Row],[POSICION]],"00")," ","_"),"Ñ","_xD1_"))</f>
-        <v>P0312</v>
+        <v>HOGAR-METRO_08</v>
       </c>
       <c r="G308" t="str">
         <f>Posiciones[[#This Row],[TIENDA]]&amp;"-"&amp;Posiciones[[#This Row],[ID]]</f>
-        <v>83-P0312</v>
+        <v>83-HOGAR-METRO_08</v>
       </c>
       <c r="H308" t="s">
-        <v>606</v>
+        <v>6</v>
       </c>
       <c r="I308" s="1" t="s">
         <v>17</v>
@@ -19852,26 +19861,35 @@
       </c>
       <c r="K308" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;polygon id="P0312" title="P0312" points="4258,710,4258,743,4237,743,4237,710" /&gt;</v>
+        <v>&lt;polygon id="HOGAR-METRO_08" title="HOGAR" points="4258,710,4258,743,4237,743,4237,710" /&gt;</v>
       </c>
     </row>
     <row r="309" spans="1:11">
       <c r="A309">
         <v>83</v>
       </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309">
+        <v>9</v>
+      </c>
       <c r="E309" t="s">
         <v>608</v>
       </c>
       <c r="F309" t="str">
         <f>IF(Posiciones[[#This Row],[POSICION]]="",Posiciones[[#This Row],[OLD_ID]],SUBSTITUTE(SUBSTITUTE(Posiciones[[#This Row],[ZONA]]&amp;"-"&amp;Posiciones[[#This Row],[TIPO POSICION]]&amp;" "&amp;TEXT(Posiciones[[#This Row],[POSICION]],"00")," ","_"),"Ñ","_xD1_"))</f>
-        <v>P0313</v>
+        <v>HOGAR-METRO_09</v>
       </c>
       <c r="G309" t="str">
         <f>Posiciones[[#This Row],[TIENDA]]&amp;"-"&amp;Posiciones[[#This Row],[ID]]</f>
-        <v>83-P0313</v>
+        <v>83-HOGAR-METRO_09</v>
       </c>
       <c r="H309" t="s">
-        <v>608</v>
+        <v>6</v>
       </c>
       <c r="I309" s="1" t="s">
         <v>17</v>
@@ -19881,7 +19899,7 @@
       </c>
       <c r="K309" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;polygon id="P0313" title="P0313" points="4258,674,4258,707,4237,707,4237,674" /&gt;</v>
+        <v>&lt;polygon id="HOGAR-METRO_09" title="HOGAR" points="4258,674,4258,707,4237,707,4237,674" /&gt;</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -26007,19 +26025,28 @@
       <c r="A521">
         <v>83</v>
       </c>
+      <c r="B521" t="s">
+        <v>6</v>
+      </c>
+      <c r="C521" t="s">
+        <v>7</v>
+      </c>
+      <c r="D521">
+        <v>10</v>
+      </c>
       <c r="E521" t="s">
         <v>1032</v>
       </c>
       <c r="F521" t="str">
         <f>IF(Posiciones[[#This Row],[POSICION]]="",Posiciones[[#This Row],[OLD_ID]],SUBSTITUTE(SUBSTITUTE(Posiciones[[#This Row],[ZONA]]&amp;"-"&amp;Posiciones[[#This Row],[TIPO POSICION]]&amp;" "&amp;TEXT(Posiciones[[#This Row],[POSICION]],"00")," ","_"),"Ñ","_xD1_"))</f>
-        <v>P0525</v>
+        <v>HOGAR-METRO_10</v>
       </c>
       <c r="G521" t="str">
         <f>Posiciones[[#This Row],[TIENDA]]&amp;"-"&amp;Posiciones[[#This Row],[ID]]</f>
-        <v>83-P0525</v>
+        <v>83-HOGAR-METRO_10</v>
       </c>
       <c r="H521" t="s">
-        <v>1032</v>
+        <v>6</v>
       </c>
       <c r="I521" s="1" t="s">
         <v>17</v>
@@ -26029,26 +26056,35 @@
       </c>
       <c r="K521" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;polygon id="P0525" title="P0525" points="4258,638,4258,671,4237,671,4237,638" /&gt;</v>
+        <v>&lt;polygon id="HOGAR-METRO_10" title="HOGAR" points="4258,638,4258,671,4237,671,4237,638" /&gt;</v>
       </c>
     </row>
     <row r="522" spans="1:11">
       <c r="A522">
         <v>83</v>
       </c>
+      <c r="B522" t="s">
+        <v>6</v>
+      </c>
+      <c r="C522" t="s">
+        <v>7</v>
+      </c>
+      <c r="D522">
+        <v>11</v>
+      </c>
       <c r="E522" t="s">
         <v>1034</v>
       </c>
       <c r="F522" t="str">
         <f>IF(Posiciones[[#This Row],[POSICION]]="",Posiciones[[#This Row],[OLD_ID]],SUBSTITUTE(SUBSTITUTE(Posiciones[[#This Row],[ZONA]]&amp;"-"&amp;Posiciones[[#This Row],[TIPO POSICION]]&amp;" "&amp;TEXT(Posiciones[[#This Row],[POSICION]],"00")," ","_"),"Ñ","_xD1_"))</f>
-        <v>P0526</v>
+        <v>HOGAR-METRO_11</v>
       </c>
       <c r="G522" t="str">
         <f>Posiciones[[#This Row],[TIENDA]]&amp;"-"&amp;Posiciones[[#This Row],[ID]]</f>
-        <v>83-P0526</v>
+        <v>83-HOGAR-METRO_11</v>
       </c>
       <c r="H522" t="s">
-        <v>1034</v>
+        <v>6</v>
       </c>
       <c r="I522" s="1" t="s">
         <v>17</v>
@@ -26058,26 +26094,35 @@
       </c>
       <c r="K522" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;polygon id="P0526" title="P0526" points="4258,601,4258,634,4237,634,4237,601" /&gt;</v>
+        <v>&lt;polygon id="HOGAR-METRO_11" title="HOGAR" points="4258,601,4258,634,4237,634,4237,601" /&gt;</v>
       </c>
     </row>
     <row r="523" spans="1:11">
       <c r="A523">
         <v>83</v>
       </c>
+      <c r="B523" t="s">
+        <v>6</v>
+      </c>
+      <c r="C523" t="s">
+        <v>7</v>
+      </c>
+      <c r="D523">
+        <v>12</v>
+      </c>
       <c r="E523" t="s">
         <v>1036</v>
       </c>
       <c r="F523" t="str">
         <f>IF(Posiciones[[#This Row],[POSICION]]="",Posiciones[[#This Row],[OLD_ID]],SUBSTITUTE(SUBSTITUTE(Posiciones[[#This Row],[ZONA]]&amp;"-"&amp;Posiciones[[#This Row],[TIPO POSICION]]&amp;" "&amp;TEXT(Posiciones[[#This Row],[POSICION]],"00")," ","_"),"Ñ","_xD1_"))</f>
-        <v>P0527</v>
+        <v>HOGAR-METRO_12</v>
       </c>
       <c r="G523" t="str">
         <f>Posiciones[[#This Row],[TIENDA]]&amp;"-"&amp;Posiciones[[#This Row],[ID]]</f>
-        <v>83-P0527</v>
+        <v>83-HOGAR-METRO_12</v>
       </c>
       <c r="H523" t="s">
-        <v>1036</v>
+        <v>6</v>
       </c>
       <c r="I523" s="1" t="s">
         <v>17</v>
@@ -26087,26 +26132,35 @@
       </c>
       <c r="K523" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;polygon id="P0527" title="P0527" points="4258,565,4258,598,4237,598,4237,565" /&gt;</v>
+        <v>&lt;polygon id="HOGAR-METRO_12" title="HOGAR" points="4258,565,4258,598,4237,598,4237,565" /&gt;</v>
       </c>
     </row>
     <row r="524" spans="1:11">
       <c r="A524">
         <v>83</v>
       </c>
+      <c r="B524" t="s">
+        <v>6</v>
+      </c>
+      <c r="C524" t="s">
+        <v>7</v>
+      </c>
+      <c r="D524">
+        <v>13</v>
+      </c>
       <c r="E524" t="s">
         <v>1038</v>
       </c>
       <c r="F524" t="str">
         <f>IF(Posiciones[[#This Row],[POSICION]]="",Posiciones[[#This Row],[OLD_ID]],SUBSTITUTE(SUBSTITUTE(Posiciones[[#This Row],[ZONA]]&amp;"-"&amp;Posiciones[[#This Row],[TIPO POSICION]]&amp;" "&amp;TEXT(Posiciones[[#This Row],[POSICION]],"00")," ","_"),"Ñ","_xD1_"))</f>
-        <v>P0528</v>
+        <v>HOGAR-METRO_13</v>
       </c>
       <c r="G524" t="str">
         <f>Posiciones[[#This Row],[TIENDA]]&amp;"-"&amp;Posiciones[[#This Row],[ID]]</f>
-        <v>83-P0528</v>
+        <v>83-HOGAR-METRO_13</v>
       </c>
       <c r="H524" t="s">
-        <v>1038</v>
+        <v>6</v>
       </c>
       <c r="I524" s="1" t="s">
         <v>17</v>
@@ -26116,7 +26170,7 @@
       </c>
       <c r="K524" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;polygon id="P0528" title="P0528" points="4258,528,4258,562,4237,562,4237,528" /&gt;</v>
+        <v>&lt;polygon id="HOGAR-METRO_13" title="HOGAR" points="4258,528,4258,562,4237,562,4237,528" /&gt;</v>
       </c>
     </row>
     <row r="525" spans="1:11">
